--- a/TowerDefense/runs/tournament uniform shift 100/export.xlsx
+++ b/TowerDefense/runs/tournament uniform shift 100/export.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Owner\Documents\GitHub\Y3-AoAIiG-EvolutionaryAlgorithms\TowerDefense\runs\tournament uniform shift 100\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7030D5E7-3C20-4FC3-A4A3-7C1CCCC96524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D358F5-C9FE-47B4-BCBA-C0329EDE5E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="export" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -593,7 +593,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Tournament/Uniform/Shift/0.01%</a:t>
+              <a:t>Tournament/Uniform/Shift/1%</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -671,10 +671,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>export!$A$2:$A$33</c:f>
+              <c:f>export!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -770,16 +770,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>export!$B$2:$B$33</c:f>
+              <c:f>export!$B$2:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>98</c:v>
                 </c:pt>
@@ -874,6 +877,9 @@
                   <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>174</c:v>
                 </c:pt>
               </c:numCache>
@@ -882,7 +888,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D44-46F3-BF4F-6930F596C223}"/>
+              <c16:uniqueId val="{00000000-9802-4C74-AC0E-2A49DEAC81F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -924,10 +930,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>export!$A$2:$A$33</c:f>
+              <c:f>export!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1023,16 +1029,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>export!$C$2:$C$33</c:f>
+              <c:f>export!$C$2:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>72</c:v>
                 </c:pt>
@@ -1127,6 +1136,9 @@
                   <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>175</c:v>
                 </c:pt>
               </c:numCache>
@@ -1135,7 +1147,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4D44-46F3-BF4F-6930F596C223}"/>
+              <c16:uniqueId val="{00000001-9802-4C74-AC0E-2A49DEAC81F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1177,10 +1189,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>export!$A$2:$A$33</c:f>
+              <c:f>export!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1276,16 +1288,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>export!$D$2:$D$33</c:f>
+              <c:f>export!$D$2:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>57</c:v>
                 </c:pt>
@@ -1381,6 +1396,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1388,7 +1406,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4D44-46F3-BF4F-6930F596C223}"/>
+              <c16:uniqueId val="{00000002-9802-4C74-AC0E-2A49DEAC81F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1430,10 +1448,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>export!$A$2:$A$33</c:f>
+              <c:f>export!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1529,16 +1547,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>export!$E$2:$E$33</c:f>
+              <c:f>export!$E$2:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>51</c:v>
                 </c:pt>
@@ -1634,6 +1655,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1641,7 +1665,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4D44-46F3-BF4F-6930F596C223}"/>
+              <c16:uniqueId val="{00000003-9802-4C74-AC0E-2A49DEAC81F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1683,10 +1707,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>export!$A$2:$A$33</c:f>
+              <c:f>export!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1782,16 +1806,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>export!$F$2:$F$33</c:f>
+              <c:f>export!$F$2:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -1894,7 +1921,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4D44-46F3-BF4F-6930F596C223}"/>
+              <c16:uniqueId val="{00000004-9802-4C74-AC0E-2A49DEAC81F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1936,10 +1963,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>export!$A$2:$A$33</c:f>
+              <c:f>export!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2035,16 +2062,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>export!$G$2:$G$33</c:f>
+              <c:f>export!$G$2:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>43</c:v>
                 </c:pt>
@@ -2147,7 +2177,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4D44-46F3-BF4F-6930F596C223}"/>
+              <c16:uniqueId val="{00000005-9802-4C74-AC0E-2A49DEAC81F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2193,10 +2223,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>export!$A$2:$A$33</c:f>
+              <c:f>export!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2292,16 +2322,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>export!$H$2:$H$33</c:f>
+              <c:f>export!$H$2:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -2404,7 +2437,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4D44-46F3-BF4F-6930F596C223}"/>
+              <c16:uniqueId val="{00000006-9802-4C74-AC0E-2A49DEAC81F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2450,10 +2483,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>export!$A$2:$A$33</c:f>
+              <c:f>export!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2549,16 +2582,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>export!$I$2:$I$33</c:f>
+              <c:f>export!$I$2:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -2661,7 +2697,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-4D44-46F3-BF4F-6930F596C223}"/>
+              <c16:uniqueId val="{00000007-9802-4C74-AC0E-2A49DEAC81F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2707,10 +2743,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>export!$A$2:$A$33</c:f>
+              <c:f>export!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2806,16 +2842,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>export!$J$2:$J$33</c:f>
+              <c:f>export!$J$2:$J$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>69</c:v>
                 </c:pt>
@@ -2918,7 +2957,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-4D44-46F3-BF4F-6930F596C223}"/>
+              <c16:uniqueId val="{00000008-9802-4C74-AC0E-2A49DEAC81F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2964,10 +3003,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>export!$A$2:$A$33</c:f>
+              <c:f>export!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3063,16 +3102,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>export!$K$2:$K$33</c:f>
+              <c:f>export!$K$2:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -3175,7 +3217,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-4D44-46F3-BF4F-6930F596C223}"/>
+              <c16:uniqueId val="{00000009-9802-4C74-AC0E-2A49DEAC81F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3221,10 +3263,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>export!$A$2:$A$33</c:f>
+              <c:f>export!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3320,16 +3362,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>export!$L$2:$L$33</c:f>
+              <c:f>export!$L$2:$L$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>151</c:v>
                 </c:pt>
@@ -3432,7 +3477,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-4D44-46F3-BF4F-6930F596C223}"/>
+              <c16:uniqueId val="{0000000A-9802-4C74-AC0E-2A49DEAC81F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3478,10 +3523,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>export!$A$2:$A$33</c:f>
+              <c:f>export!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3577,16 +3622,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>export!$M$2:$M$33</c:f>
+              <c:f>export!$M$2:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>83</c:v>
                 </c:pt>
@@ -3689,7 +3737,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-4D44-46F3-BF4F-6930F596C223}"/>
+              <c16:uniqueId val="{0000000B-9802-4C74-AC0E-2A49DEAC81F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3737,10 +3785,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>export!$A$2:$A$33</c:f>
+              <c:f>export!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3836,16 +3884,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>export!$N$2:$N$33</c:f>
+              <c:f>export!$N$2:$N$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>69</c:v>
                 </c:pt>
@@ -3948,7 +3999,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-4D44-46F3-BF4F-6930F596C223}"/>
+              <c16:uniqueId val="{0000000C-9802-4C74-AC0E-2A49DEAC81F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3996,10 +4047,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>export!$A$2:$A$33</c:f>
+              <c:f>export!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4095,16 +4146,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>export!$O$2:$O$33</c:f>
+              <c:f>export!$O$2:$O$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>45</c:v>
                 </c:pt>
@@ -4207,7 +4261,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-4D44-46F3-BF4F-6930F596C223}"/>
+              <c16:uniqueId val="{0000000D-9802-4C74-AC0E-2A49DEAC81F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4255,10 +4309,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>export!$A$2:$A$33</c:f>
+              <c:f>export!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4354,16 +4408,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>export!$P$2:$P$33</c:f>
+              <c:f>export!$P$2:$P$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>57</c:v>
                 </c:pt>
@@ -4466,7 +4523,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-4D44-46F3-BF4F-6930F596C223}"/>
+              <c16:uniqueId val="{0000000E-9802-4C74-AC0E-2A49DEAC81F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4514,10 +4571,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>export!$A$2:$A$33</c:f>
+              <c:f>export!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4613,16 +4670,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>export!$Q$2:$Q$33</c:f>
+              <c:f>export!$Q$2:$Q$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -4725,7 +4785,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-4D44-46F3-BF4F-6930F596C223}"/>
+              <c16:uniqueId val="{0000000F-9802-4C74-AC0E-2A49DEAC81F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4737,11 +4797,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="843847712"/>
-        <c:axId val="714767920"/>
+        <c:axId val="1365741135"/>
+        <c:axId val="1494336399"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="843847712"/>
+        <c:axId val="1365741135"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -4854,14 +4914,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="714767920"/>
+        <c:crossAx val="1494336399"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="714767920"/>
+        <c:axId val="1494336399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4971,7 +5032,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="843847712"/>
+        <c:crossAx val="1365741135"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5621,24 +5682,26 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>176214</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B34A2A0-AEA3-120E-2CE5-D0E1066425F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E4BE774-8927-4B27-8DA2-1911AFB7DB28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5951,11 +6014,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
